--- a/Excel/hot_keywords.xlsx
+++ b/Excel/hot_keywords.xlsx
@@ -78,6 +78,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-09-06 08-11-37" sheetId="70" state="visible" r:id="rId70"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-09-06 16-00-21" sheetId="71" state="visible" r:id="rId71"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-09-08 08-26-32" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-09-14 13-53-59" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -48055,6 +48056,1807 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Monster Hunter Now</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5K+  4h ago</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>《Monster Hunter Now》於全球開放下載遊玩，增加AR Camera ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>墨西哥外星人</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2K+  3h ago</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>千年歷史！墨西哥公布「2具外星人遺體」</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>勤業眾信</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2K+  2h ago</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>民眾黨第三方檢舉平台勤業眾信：避免誤解終止委任</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>航太展</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1K+  6h ago</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>「台灣飛行器」研發新款產品航太展受矚目</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>文曄</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1K+  4h ago</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>《電通股》將公布重大訊息文曄今暫停交易</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>郭碧婷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1K+  1h ago</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>認不出！郭碧婷久違露面短髮造型大翻車</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>好市多氣泡水</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1K+  8h ago</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>好市多氣泡水疑混入塑膠異物(圖)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>情人節</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1K+  13h ago</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>日版《消失的情人節》浪漫上映：《快一秒的他》以日本京都景色 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>馬斯克</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1K+  4h ago</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>馬斯克將台灣比作夏威夷挨批不懂歷史為中國宣傳</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>空氣品質</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1K+  20h ago</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(空氣品質) 金門縣政府公告「金門縣中山紀念林空氣品質維護區移動 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>500K+2h ago</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro採「PC等級處理器」！可實現機上光追、支援空間拍攝 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apple Watch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20K+ 23h ago</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Apple Watch Series 9亮點、價格、上市時間！也有可愛粉色，超狂新 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AirPods Pro</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20K+ 17h ago</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AirPods Pro 2也改USB-C！新款充電盒超狂</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CASETiFY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10K+ 21h ago</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>買新手機更要好好保護！編輯推薦11 款CASETiFY「iPhone 15 全 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>鬼門關夜市</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10K+ 15h ago</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>苗栗苑裡「鬼門關夜市」 規模擴大爆人潮</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>鬼門關</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10K+ 5h ago</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>鬼門關祭拜禁忌：供品不能太豪華？避免招鬼、「死一串」哪些水果 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10K+ 16h ago</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>美股盤前重點／美8月CPI稍高於預期歐盟對大陸電動車啟動反補貼調查</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>鄭雲燦</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5K+  1d ago</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>【落寞抱柱夜買醉1】離婚後前妻花邊全嫩弟！ 歐漢聲不甘成「鄭雲燦 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>柯美蘭</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2K+  1d ago</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>胞妹柯美蘭參選竹市立委？ 柯文哲證實「個人意願很高」 - 政治- 自由 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>戴資穎</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2K+  18h ago</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>香港羽賽／驚！戴資穎第二局手痛退賽送許玟琪晉級16強</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>傑尼斯</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2K+  20h ago</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>傑尼斯性侵案風波發酵事務所撤強尼喜多川畫像</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Arm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2K+  7h ago</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ARM每股定價51美元估值545億美元寫美國今年最大IPO紀錄</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>iPhone 12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2K+  14h ago</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>蘋果反駁法國電磁波調查結果拿實驗報告證明iPhone 12清白</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Unity</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2K+  18h ago</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Unity 將開始依「安裝數」向開發者收費</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>三星手機</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2K+  12h ago</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>悚！智慧型手機突自燃起火險傷10歲童三星電子拒賠償</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>iPhone 11</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2K+  2h ago</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>iPhone 11換電池再戰！他一查發現「偷漲價」哀號：強迫換新機</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2K+  17h ago</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>美團閃購與蘋果(AAPL.US)授權店深化合作首次支援新品預售</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>iOS 17</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2K+  1d ago</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>iOS 17將於9月18日開放下載</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>郭家雞肉飯</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1K+  12h ago</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>老闆跑路尷尬了？郭家雞肉飯漏開發票停業</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pixel 8</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1K+  1d ago</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>防晶片過熱，Pixel 8 搭載的Tensor G3 傳採扇出型封裝| TechNews ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>小渕優子</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>50K+ 5h ago</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>小渕優子氏、「政治とカネ」で涙声…「忘れることのない傷として ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>モンハンNow</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20K+ 3h ago</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>『モンハンNow』が本日（9/14）配信開始。日常生活の中で気軽に ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>滝沢秀明</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10K+ 6h ago</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>『ＴＯＢＥ』社長・滝沢秀明の夏休み！ 盟友・三宅健と一緒に沖縄 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>レプトスピラ症</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5K+  20h ago</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>川遊び後に「レプトスピラ症」に 重症化で死亡リスクも…注意 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Unity</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5K+  2h ago</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Unity Technologies、「Unity」エンジンのプラン設定と価格の変更 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>紗栄子</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>50K+ 14h ago</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>紗栄子 「ジェニオが天国に」と別れを報告「気持ちの整理はついて ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>アップルウォッチ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>人気「アップルウォッチ」ケースが旧型に対応！ SEはもちろん6/5/4 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Apple Watch</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20K+ 4h ago</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Apple Watchの新モデルへの対応について | GMOクリック証券</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>阪神 優勝</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20K+ 15h ago</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>阪神 マジックナンバー1に 優勝が決まる条件は?</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>北斗の拳</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10K+ 4h ago</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>『北斗の拳』原作生誕40周年を記念して新たにシリーズアニメ化 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>自見はなこ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10K+ 21h ago</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>自見英子地方創生相の横顔</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AirPods Pro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>【オンラインストア限定】9/22(金)まで「AirPodsケース/ AirPods ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AirPods</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5K+  19h ago</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AirPods Proが落ちにくくなる専用イヤーピースやカラビナ付き ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>アイフォン15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>500K+22h ago</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Apple、「iPhone 15 Pro」と「iPhone 15 Pro Max」発売。ProRes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>内閣改造</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>100K+10h ago</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>岸田首相 内閣改造 選挙もにらみ政権浮揚つなげられるか焦点</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>藤井聡太</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>100K+1d ago</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>将棋「王座戦」 藤井聡太七冠が勝利 1勝1敗の五分に</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>モスバーガー ジャニーズ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>50K+ 13h ago</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>モスバーガー ジャニーズタレント起用のポスターを不適切加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>上川陽子</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>50K+ 22h ago</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>内閣改造 上川陽子氏が外相に 地元の反応｜NHK 静岡県のニュース</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>リビア</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>50K+ 10h ago</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>リビア洪水 死者5000人超える 「マンション3階まで水が…」</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>サッカー</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>50K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>サッカーの試合時間・タイムルールを解説【公式】Jリーグ公式 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>木原稔</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>50K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>内閣改造 防衛大臣に木原稔氏起用へ 初入閣</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>小渕優子</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>50K+ 16h ago</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>小渕優子氏、「政治とカネ」で涙声…「忘れることのない傷として ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ポケモンSV DLC</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20K+ 14h ago</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>『スプラトゥーン3』1周年記念特集。『ポケモンSV』DLC前編配信 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Apple 発表会</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5分でわかる！ アップル発表会の全内容まとめ</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>毎熊晟矢</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>20K+ 11h ago</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>【Ｃ大阪】日本代表デビューのDF毎熊晟矢が16日鹿島戦強行先発へ ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>阪神 マジック</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>20K+ 15h ago</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>阪神 マジックナンバー1に 優勝が決まる条件は?</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>サッカー日本代表</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10K+ 9h ago</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>サッカー日本代表、「弱者の戦い」から脱却の欧州2連勝</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>練馬区中学校校長</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>10K+ 2d ago</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>区立中学校校長の逮捕について：練馬区公式ホームページ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>宮下一郎</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>10K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>内閣改造 農林水産大臣に宮下一郎氏起用へ 初入閣</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>電動キックボード</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>電動キックボード「DK01」の取り扱いを【デイトナ】が開始 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mitt Romney</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>100K+7h ago</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>WATCH: Utah Sen. Mitt Romney calls for 'next gener</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lauren Boebert</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>100K+7h ago</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauren Boebert Ejected from “Beetlejuice” Musical </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>UNC</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>100K+10h ago</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>A message from the chancellor: update on today's l</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Killers of the Flower Moon</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>50K+ 12h ago</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>New Trailer: Killers of the Flower Moon</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Justin Timberlake</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>50K+ 14h ago</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Megan Thee Stallion Responds to Rumored Justin Tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Jaahnavi Kandula</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>50K+ 7h ago</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Seattle officer recorded joking about woman killed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bodybuilder Neil Currey</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>50K+ 13h ago</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Neil Currey, world-renowned bodybuilder, dead at 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Unity</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20K+ 11h ago</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Unity discovers how real the revenue struggle is</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Stetson Bennett</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>20K+ 8h ago</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Rams QB Stetson Bennett will go on reserve/non-foo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ariana Grande</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>20K+ 18h ago</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ariana Grande reveals she had 'a ton' of lip fille</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>El Chapo</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>20K+ 10h ago</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>El Chapo's wife released from US custody after com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>20K+ 16h ago</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>The August 2023 Consumer Price Index | CEA | The W</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Tupac</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>20K+ 12h ago</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tupac, Biggie and Jay-Z's Emmy Nods: "You Never Th</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>The Other Black Girl</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>20K+ 8h ago</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>New TV shows take on the hazard of Working While B</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Starfield update</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>20K+ 11h ago</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Starfield Releases Update 1.7.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Brandon Hunter</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>20K+ 9h ago</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Former NBA player Brandon Hunter collapses during </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>The Morning Show</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>20K+ 20h ago</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>'The Morning Show' is back, with a new billionaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Maneskin</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>20K+ 1d ago</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Is Måneskin the Last Rock Band?</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>iPhone 12</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>20K+ 9h ago</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Apple disputes French findings, says iPhone 12 mee</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Lies of P</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>20K+ 14h ago</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Lies of P review</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Excel/hot_keywords.xlsx
+++ b/Excel/hot_keywords.xlsx
@@ -102,6 +102,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-11-25 21-54-23" sheetId="94" state="visible" r:id="rId94"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-01 21-21-13" sheetId="95" state="visible" r:id="rId95"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-02 17-45-21" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-04-24 20-05-49" sheetId="97" state="visible" r:id="rId97"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -82033,4 +82034,397 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>水庫</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>50K+ 2h ago</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>苗栗多鄉鎮累積雨量破百毫米水庫可望稍解渴</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5K+  11h ago</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tesla盤後飆馬斯克稱平價車提前、大談AI機器人</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>英超</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2K+  2h ago</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>英超｜阿仙奴派5蛋領前利物浦3分車路士吞第2大敗仗普捷天奴認不值 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>全民英檢</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2K+  9h ago</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024年「全民英檢」（GEPT）高級聽讀即日起開始報名– 國立臺南 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lulu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2K+  2h ago</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>受不了紛擾？Lulu黃路梓茵宣布離台，透露「把生命裡好的跟壞的都 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>兆豐金</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2K+  12h ago</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>兆豐金（2886）1.5元現金+0.3元股票！ 達人：EPS創9年新高但現金 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>快艇</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2K+  6h ago</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NBA唐西奇轟32分獨行俠季後賽扳平快艇</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>欣興</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2K+  10h ago</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>欣興第一季營收落底、第2季上修法人按讚股價衝漲停</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>台通</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1K+  4h ago</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>陳重文圖利「案外案」台通光電內線交易董座兒李嘉豪羈押禁見</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>蕭閎仁</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1K+  8h ago</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>挨轟沒常識蕭閎仁：國家警報沒存到我號碼</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>張敏</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1K+  13h ago</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>90年代女神「張敏」被指忽然暴瘦真相令人不寒而慄</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>翡翠水庫</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1K+  6h ago</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>汛期將屆翡翠水庫完成控水閘門測試防淹水</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>彈頭</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1K+  1d ago</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>南拳媽媽彈頭潛水違法摸鯨遭撻伐發聲明：彼此角度不一樣</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>地震症候群</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1K+  5h ago</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>震後一直頭暈？地震症候群好發於3族群醫列10大症狀、1緩解方法</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>高雄啤酒節</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1K+  1h ago</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>高雄啤酒節首波卡司曝！MAMAMOO的她強勢登港都網發瘋</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>新光金</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1K+  3h ago</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>重啟新新併？新光大股東林伯翰：時機不對緩不濟急</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>